--- a/assets/excel/Data Guru.xlsx
+++ b/assets/excel/Data Guru.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>NIP</t>
   </si>
@@ -50,109 +50,106 @@
     <t>Asal Sekolah</t>
   </si>
   <si>
-    <t>Supardi</t>
+    <t>Tgl Pensiun</t>
+  </si>
+  <si>
+    <t>Abdul Rahman</t>
+  </si>
+  <si>
+    <t>Bekasi 2020-02-06</t>
+  </si>
+  <si>
+    <t>Kepala Sekolah</t>
+  </si>
+  <si>
+    <t>IV D</t>
+  </si>
+  <si>
+    <t>PNS</t>
+  </si>
+  <si>
+    <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>087658493021</t>
+  </si>
+  <si>
+    <t>Jln. Melati no 1</t>
+  </si>
+  <si>
+    <t>SDN Pertiwi</t>
+  </si>
+  <si>
+    <t>Budi Susanto</t>
+  </si>
+  <si>
+    <t>Bekasi 2020-02-05</t>
   </si>
   <si>
     <t>Guru</t>
   </si>
   <si>
+    <t>II B</t>
+  </si>
+  <si>
+    <t>087658439213</t>
+  </si>
+  <si>
+    <t>Jln. Flamboyan no 2 01/01</t>
+  </si>
+  <si>
+    <t>SDN Waru 02</t>
+  </si>
+  <si>
+    <t>Sujono</t>
+  </si>
+  <si>
+    <t>Kediri 1996-02-04</t>
+  </si>
+  <si>
     <t>I C</t>
   </si>
   <si>
-    <t>PNS</t>
-  </si>
-  <si>
-    <t>Laki-laki</t>
-  </si>
-  <si>
-    <t>Islam</t>
-  </si>
-  <si>
-    <t>085743289742</t>
-  </si>
-  <si>
-    <t>Jln. Sumpah pemuda no 55 04/01 Surabaya</t>
-  </si>
-  <si>
-    <t>SDN Kusuma Bangsa</t>
-  </si>
-  <si>
-    <t>Abdul Rahman</t>
-  </si>
-  <si>
-    <t>Bekasi 2020-02-06</t>
-  </si>
-  <si>
-    <t>Kepala Sekolah</t>
-  </si>
-  <si>
-    <t>IV D</t>
-  </si>
-  <si>
-    <t>087658493021</t>
-  </si>
-  <si>
-    <t>Jln. Melati no 1</t>
-  </si>
-  <si>
-    <t>SDN Pertiwi</t>
-  </si>
-  <si>
-    <t>Budi Susanto</t>
-  </si>
-  <si>
-    <t>Bekasi 2020-02-05</t>
-  </si>
-  <si>
-    <t>II B</t>
-  </si>
-  <si>
-    <t>087658439213</t>
-  </si>
-  <si>
-    <t>Jln. Flamboyan no 2 01/01</t>
-  </si>
-  <si>
-    <t>SDN Waru 02</t>
-  </si>
-  <si>
-    <t>Bekasi 2020-02-12</t>
-  </si>
-  <si>
-    <t>I B</t>
-  </si>
-  <si>
-    <t>NON PNS</t>
+    <t>Jln. Balowerti gg 2 no 80</t>
+  </si>
+  <si>
+    <t>SDN Balowerti 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1 2020-02-19</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Sujono</t>
-  </si>
-  <si>
-    <t>Kediri 1996-02-04</t>
-  </si>
-  <si>
-    <t>Jln. Balowerti gg 2 no 80</t>
-  </si>
-  <si>
-    <t>SDN Balowerti 1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8.6745432315432E+14</t>
-  </si>
-  <si>
-    <t>kediri 30-12-2019</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1 2020-02-06</t>
+    <t>2020-02-13</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>guru</t>
+  </si>
+  <si>
+    <t>I A</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>2020-04-22</t>
   </si>
 </sst>
 </file>
@@ -491,7 +488,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +496,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,399 +530,228 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2">
-        <v>876857685768</v>
+        <v>86745432315432</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2"/>
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>987564732121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>1.9860926201505E+17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
       </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>86745432315432</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>9875647321211</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
         <v>26</v>
       </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>987564732121</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>123555</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>1.9860926201505E+17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7"/>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>8768576857681</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>9875647321211</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>12111</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>1111</v>
-      </c>
-      <c r="B12">
-        <v>1111</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
         <v>44</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
